--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export_pre_processed_validation_added.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export_pre_processed_validation_added.xlsx
@@ -15706,13 +15706,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E587D9BD-D1D0-45A1-8ED3-CE61F03098D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B715F8C-07CC-4B74-9849-74C98E8A7622}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D379326A-EAB0-4C37-996D-E6A4D9B004A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A0A1549-0616-47DF-A508-70975FFA5BF9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38962498-0942-48D2-9845-635EB1377A93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC784BD2-A8A2-4471-A69E-E5D9BB9A3C84}"/>
 </file>